--- a/nr-rm-extension-nationality/ig/StructureDefinition-as-dp-device.xlsx
+++ b/nr-rm-extension-nationality/ig/StructureDefinition-as-dp-device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T12:07:38+00:00</t>
+    <t>2025-10-08T12:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,7 +449,7 @@
     <t>Device.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -500,7 +500,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -524,7 +524,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -567,7 +567,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1012,7 +1012,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1099,7 +1099,7 @@
     <t>Device.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
     <t>Device.definition</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DeviceDefinition)
+    <t xml:space="preserve">Reference(DeviceDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -1344,7 +1344,7 @@
     <t>The availability status reason of the device.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-status-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/device-status-reason|4.0.1</t>
   </si>
   <si>
     <t>Device.distinctIdentifier</t>
@@ -1660,7 +1660,7 @@
     <t>Device.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|4.0.1)
 </t>
   </si>
   <si>
@@ -1720,7 +1720,7 @@
     <t>Device.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1782,7 +1782,7 @@
     <t>Device.parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|4.0.1)
 </t>
   </si>
   <si>
@@ -2845,7 +2845,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>199</v>
       </c>
@@ -10111,7 +10111,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>410</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>430</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>448</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>477</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
         <v>532</v>
       </c>
@@ -15191,12 +15191,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN115">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
